--- a/Projector/ProjectionData.xlsx
+++ b/Projector/ProjectionData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AliasPaul\Projector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1400513-A017-4876-9E17-28913F6362D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A02D4F-D84F-42DF-AB73-BE3495806245}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="4335" windowWidth="21600" windowHeight="12735" xr2:uid="{B6181921-8269-4D53-8189-F50D765000A8}"/>
+    <workbookView xWindow="5385" yWindow="870" windowWidth="21600" windowHeight="12735" xr2:uid="{B6181921-8269-4D53-8189-F50D765000A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Camera Point</t>
   </si>
@@ -43,6 +43,57 @@
   </si>
   <si>
     <t>distance</t>
+  </si>
+  <si>
+    <t>PointToProject</t>
+  </si>
+  <si>
+    <t>_N</t>
+  </si>
+  <si>
+    <t>_V2</t>
+  </si>
+  <si>
+    <t>_V1</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>v1-v2 check</t>
+  </si>
+  <si>
+    <t>v1-n check</t>
+  </si>
+  <si>
+    <t>v2_n check</t>
+  </si>
+  <si>
+    <t>camtopoint</t>
+  </si>
+  <si>
+    <t>theta (angle between camtopoint and normal)</t>
+  </si>
+  <si>
+    <t>planedist</t>
+  </si>
+  <si>
+    <t>P1 (intersection of camline and plane)</t>
+  </si>
+  <si>
+    <t>_NP1</t>
+  </si>
+  <si>
+    <t>dothorizontal</t>
+  </si>
+  <si>
+    <t>dotvertical</t>
+  </si>
+  <si>
+    <t>dx</t>
+  </si>
+  <si>
+    <t>dy</t>
   </si>
 </sst>
 </file>
@@ -394,17 +445,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B1CAB8-03F0-4720-8830-239B99D0CF86}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="1" max="1" width="49.28515625" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -432,29 +485,29 @@
         <v>-7</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G2">
         <f>SQRT(C2^2+D2^2+E2^2)</f>
-        <v>9.2195444572928871</v>
+        <v>9.4339811320566032</v>
       </c>
       <c r="I2">
         <f>G2^2</f>
-        <v>85</v>
+        <v>88.999999999999986</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3">
         <f>C2/$G2</f>
-        <v>0.65079137345596849</v>
+        <v>0.63599872800381607</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:E3" si="0">D2/$G2</f>
-        <v>-0.75925660236529657</v>
+        <v>-0.74199851600445199</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.21199957600127201</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -463,6 +516,263 @@
       </c>
       <c r="C4">
         <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f>C1+C3*$C4</f>
+        <v>-24.200063599809198</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:E5" si="1">D1+D3*$C4</f>
+        <v>-5.0999258002226</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>111.4000211999364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>400</v>
+      </c>
+      <c r="D8">
+        <v>-100</v>
+      </c>
+      <c r="E8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <f>D11*E3-E12*D3</f>
+        <v>0.13483146067415733</v>
+      </c>
+      <c r="D10">
+        <f>-(C11*E3-C3*E11)</f>
+        <v>-0.15730337078651685</v>
+      </c>
+      <c r="E10">
+        <f>C11*D3-C3*D11</f>
+        <v>0.95505617977528101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <f>D3*E7-E3*D7</f>
+        <v>-0.74199851600445199</v>
+      </c>
+      <c r="D11">
+        <f>-(C3*E7-E3*C7)</f>
+        <v>-0.63599872800381607</v>
+      </c>
+      <c r="E11">
+        <f>C3*D7-D3*C7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <f>C10*C11+D10*D11+E10*E11</f>
+        <v>-1.3877787807814457E-17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <f>C10*C3+D10*D3+E10*E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <f>C11*C3+D11*D3+E11*E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <f>C8-C1</f>
+        <v>456</v>
+      </c>
+      <c r="D18">
+        <f>D8-D1</f>
+        <v>-132</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ref="E18" si="2">E8-E1</f>
+        <v>-99</v>
+      </c>
+      <c r="G18">
+        <f>SQRT(C18^2+D18^2+E18^2)</f>
+        <v>484.93401613002982</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f>C18/$G18</f>
+        <v>0.94033411728685279</v>
+      </c>
+      <c r="D19">
+        <f>D18/$G18</f>
+        <v>-0.27220198131987844</v>
+      </c>
+      <c r="E19">
+        <f>E18/$G18</f>
+        <v>-0.20415148598990882</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f>C19*C3+D19*D3+E19*E3</f>
+        <v>0.84330479715574114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <f>ACOS(C20)</f>
+        <v>0.56739325342039426</v>
+      </c>
+      <c r="D21">
+        <f>C21*180/PI()</f>
+        <v>32.509238745185357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <f>C4/COS(C21)</f>
+        <v>59.290543785162441</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23">
+        <f>C1+C19*$C22</f>
+        <v>-0.24707884632177723</v>
+      </c>
+      <c r="D23">
+        <f>D1+D19*$C22</f>
+        <v>15.860996508145778</v>
+      </c>
+      <c r="E23">
+        <f>E1+E19*$C22</f>
+        <v>109.89574738110933</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <f>C23-C5</f>
+        <v>23.952984753487421</v>
+      </c>
+      <c r="D24">
+        <f>D23-D5</f>
+        <v>20.960922308368378</v>
+      </c>
+      <c r="E24">
+        <f>E23-E5</f>
+        <v>-1.5042738188270732</v>
+      </c>
+      <c r="G24">
+        <f>SQRT(C24^2+D24^2+E24^2)</f>
+        <v>31.864848694764966</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f>C24/$G24</f>
+        <v>0.75170558576738589</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25:E25" si="3">D24/$G24</f>
+        <v>0.65780705595542399</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>-4.7207938541826762E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <f>C25*C11+D25*D11+E25*E11</f>
+        <v>-0.97612887997124242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31">
+        <f>C25*C10+D25*D10+E25*E10</f>
+        <v>-4.7207938541826727E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33">
+        <f>FLOOR(G24*C30+0.5,1)</f>
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34">
+        <f>FLOOR(G24*C31+0.5,1)</f>
+        <v>-2</v>
       </c>
     </row>
   </sheetData>

--- a/Projector/ProjectionData.xlsx
+++ b/Projector/ProjectionData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AliasPaul\Projector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A02D4F-D84F-42DF-AB73-BE3495806245}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD81FAD-E01A-49C9-A591-443EBAB2B75B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5385" yWindow="870" windowWidth="21600" windowHeight="12735" xr2:uid="{B6181921-8269-4D53-8189-F50D765000A8}"/>
+    <workbookView xWindow="2520" yWindow="2265" windowWidth="24750" windowHeight="13350" xr2:uid="{B6181921-8269-4D53-8189-F50D765000A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,7 +531,7 @@
         <v>-5.0999258002226</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f>E1+E3*$C4</f>
         <v>111.4000211999364</v>
       </c>
     </row>

--- a/Projector/ProjectionData.xlsx
+++ b/Projector/ProjectionData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AliasPaul\Projector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD81FAD-E01A-49C9-A591-443EBAB2B75B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15A0620-2C77-4B79-88C3-29A9D1CAF538}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="2265" windowWidth="24750" windowHeight="13350" xr2:uid="{B6181921-8269-4D53-8189-F50D765000A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{B6181921-8269-4D53-8189-F50D765000A8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Projector" sheetId="1" r:id="rId1"/>
+    <sheet name="Line3D" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Camera Point</t>
   </si>
@@ -94,6 +95,24 @@
   </si>
   <si>
     <t>dy</t>
+  </si>
+  <si>
+    <t>Point P</t>
+  </si>
+  <si>
+    <t>Vector3D</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>Point Q</t>
+  </si>
+  <si>
+    <t>Vector 3d</t>
   </si>
 </sst>
 </file>
@@ -447,7 +466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B1CAB8-03F0-4720-8830-239B99D0CF86}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -527,7 +546,7 @@
         <v>-24.200063599809198</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:E5" si="1">D1+D3*$C4</f>
+        <f t="shared" ref="D5" si="1">D1+D3*$C4</f>
         <v>-5.0999258002226</v>
       </c>
       <c r="E5">
@@ -778,4 +797,159 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EA40E4-8C60-4748-8297-7FAE322C26C1}">
+  <dimension ref="A3:M11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="10" max="10" width="29.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3">
+        <f>B3+H$3*E3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J5" si="0">B4+H$3*E4</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>-20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <f>J3</f>
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>34</v>
+      </c>
+      <c r="F7">
+        <f>E7/E$11</f>
+        <v>0.67662528934279265</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="J7">
+        <f>B7+F7*H$7</f>
+        <v>38.831264467139633</v>
+      </c>
+      <c r="L7">
+        <v>-45</v>
+      </c>
+      <c r="M7">
+        <f>B7+L$7*F7</f>
+        <v>-25.44813802042567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f t="shared" ref="B8:B9" si="1">J4</f>
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>-37</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F9" si="2">E8/E$11</f>
+        <v>-0.73632752075539198</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8:J9" si="3">B8+F8*H$7</f>
+        <v>-30.816376037769601</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:M9" si="4">B8+L$7*F8</f>
+        <v>39.134738433992638</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f>SQRT(E7^2+E8^2+E9^2)</f>
+        <v>50.24937810560445</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Projector/ProjectionData.xlsx
+++ b/Projector/ProjectionData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AliasPaul\Projector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15A0620-2C77-4B79-88C3-29A9D1CAF538}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B0E6AC-CE73-465A-A169-B45F7C594853}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{B6181921-8269-4D53-8189-F50D765000A8}"/>
+    <workbookView xWindow="-105" yWindow="3525" windowWidth="28980" windowHeight="12360" activeTab="2" xr2:uid="{B6181921-8269-4D53-8189-F50D765000A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Projector" sheetId="1" r:id="rId1"/>
     <sheet name="Line3D" sheetId="2" r:id="rId2"/>
+    <sheet name="BoundedPlane" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Camera Point</t>
   </si>
@@ -113,6 +114,45 @@
   </si>
   <si>
     <t>Vector 3d</t>
+  </si>
+  <si>
+    <t>TopLeft</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>TopRigtht</t>
+  </si>
+  <si>
+    <t>BottomRight</t>
+  </si>
+  <si>
+    <t>BottomLeft</t>
+  </si>
+  <si>
+    <t>tl check</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>chk1</t>
+  </si>
+  <si>
+    <t>chk2</t>
+  </si>
+  <si>
+    <t>chk3</t>
   </si>
 </sst>
 </file>
@@ -803,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EA40E4-8C60-4748-8297-7FAE322C26C1}">
   <dimension ref="A3:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,4 +992,269 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82873D8B-D73E-4292-A131-B890CD3C1772}">
+  <dimension ref="A3:N23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="34.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" customWidth="1"/>
+    <col min="14" max="14" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>-45</v>
+      </c>
+      <c r="C3">
+        <v>456</v>
+      </c>
+      <c r="D3">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>750</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>-45</v>
+      </c>
+      <c r="C6">
+        <v>-45</v>
+      </c>
+      <c r="D6">
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <f>SQRT(B6^2+C6^2+D6^2)</f>
+        <v>67.014923711066032</v>
+      </c>
+      <c r="H6">
+        <f>B6/$F6</f>
+        <v>-0.67149222155376787</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:J7" si="0">C6/$F6</f>
+        <v>-0.67149222155376787</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.31336303672509164</v>
+      </c>
+      <c r="L6">
+        <f>I6*J7-J6*I7</f>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="M6">
+        <f>-(H6*J7-J6*H7)</f>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="N6">
+        <f>H6*I7-I6*H7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>-12.6252</v>
+      </c>
+      <c r="C7">
+        <v>-12.6252</v>
+      </c>
+      <c r="D7">
+        <v>-54.108000000000004</v>
+      </c>
+      <c r="F7">
+        <f>SQRT(B7^2+C7^2+D7^2)</f>
+        <v>56.97777649294504</v>
+      </c>
+      <c r="H7">
+        <f>B7/$F7</f>
+        <v>-0.22158112824152143</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>-0.22158112824152143</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>-0.94963340674937757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8">
+        <f>L6*H6+M6*I6+N6*J6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9">
+        <f>L6*H7+M6*I7+N6*J7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <f>B3+H6*$B4</f>
+        <v>-380.74611077688394</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:D10" si="1">C3+I6*$B4</f>
+        <v>120.25388922311606</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>862.68151836254583</v>
+      </c>
+      <c r="L10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10">
+        <f>H6*H7+I6*I7+J6*J7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <f>B10+H7*$B5</f>
+        <v>-546.93195695802501</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:D11" si="2">C10+I7*$B5</f>
+        <v>-45.931956958025012</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>150.45646330051261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <f>B11-H6*$B4</f>
+        <v>-211.18584618114107</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:D12" si="3">C11-I6*$B4</f>
+        <v>289.81415381885893</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>-6.2250550620332206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <f>B12-H7*$B5</f>
+        <v>-45</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:D13" si="4">C12-I7*$B5</f>
+        <v>456</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="4"/>
+        <v>706</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <f>B3+(H6*$B4/2)+(H7*$B5/2)</f>
+        <v>-295.96597847901251</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:D15" si="5">C3+(I6*$B4/2)+(I7*$B5/2)</f>
+        <v>205.03402152098749</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="5"/>
+        <v>428.2282316502563</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-0.21042</v>
+      </c>
+      <c r="B22">
+        <v>-0.21042</v>
+      </c>
+      <c r="C22">
+        <v>-0.90180000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>A22*60</f>
+        <v>-12.6252</v>
+      </c>
+      <c r="B23">
+        <f>B22*60</f>
+        <v>-12.6252</v>
+      </c>
+      <c r="C23">
+        <f>C22*60</f>
+        <v>-54.108000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Projector/ProjectionData.xlsx
+++ b/Projector/ProjectionData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AliasPaul\Projector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B0E6AC-CE73-465A-A169-B45F7C594853}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B98DEA-C48F-4D6F-AA06-C6CD9ECC6413}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="3525" windowWidth="28980" windowHeight="12360" activeTab="2" xr2:uid="{B6181921-8269-4D53-8189-F50D765000A8}"/>
+    <workbookView xWindow="-1590" yWindow="3495" windowWidth="28800" windowHeight="12360" activeTab="2" xr2:uid="{B6181921-8269-4D53-8189-F50D765000A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Projector" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Camera Point</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>chk3</t>
+  </si>
+  <si>
+    <t>Test Point 1</t>
   </si>
 </sst>
 </file>
@@ -996,16 +999,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82873D8B-D73E-4292-A131-B890CD3C1772}">
-  <dimension ref="A3:N23"/>
+  <dimension ref="A3:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D20" sqref="D20:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.140625" customWidth="1"/>
     <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="14.140625" customWidth="1"/>
@@ -1229,29 +1233,27 @@
         <v>428.2282316502563</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>-0.21042</v>
-      </c>
-      <c r="B22">
-        <v>-0.21042</v>
-      </c>
-      <c r="C22">
-        <v>-0.90180000000000005</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f>A22*60</f>
-        <v>-12.6252</v>
-      </c>
-      <c r="B23">
-        <f>B22*60</f>
-        <v>-12.6252</v>
-      </c>
-      <c r="C23">
-        <f>C22*60</f>
-        <v>-54.108000000000004</v>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <v>-78</v>
+      </c>
+      <c r="D20">
+        <f>B15+$B20*H6+$C20*H7</f>
+        <v>-308.89980044609337</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:F20" si="6">C15+$B20*I6+$C20*I7</f>
+        <v>192.10019955390663</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="6"/>
+        <v>516.40097402933691</v>
       </c>
     </row>
   </sheetData>

--- a/Projector/ProjectionData.xlsx
+++ b/Projector/ProjectionData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AliasPaul\Projector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B98DEA-C48F-4D6F-AA06-C6CD9ECC6413}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125DDED5-C611-449F-A67C-0DE4D3147288}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1590" yWindow="3495" windowWidth="28800" windowHeight="12360" activeTab="2" xr2:uid="{B6181921-8269-4D53-8189-F50D765000A8}"/>
+    <workbookView xWindow="0" yWindow="1335" windowWidth="28800" windowHeight="16065" activeTab="3" xr2:uid="{B6181921-8269-4D53-8189-F50D765000A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Projector" sheetId="1" r:id="rId1"/>
     <sheet name="Line3D" sheetId="2" r:id="rId2"/>
     <sheet name="BoundedPlane" sheetId="3" r:id="rId3"/>
+    <sheet name="Cube" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Camera Point</t>
   </si>
@@ -156,6 +157,15 @@
   </si>
   <si>
     <t>Test Point 1</t>
+  </si>
+  <si>
+    <t>ftl</t>
+  </si>
+  <si>
+    <t>Vector3d</t>
+  </si>
+  <si>
+    <t>ftr</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82873D8B-D73E-4292-A131-B890CD3C1772}">
   <dimension ref="A3:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20:F20"/>
     </sheetView>
   </sheetViews>
@@ -1259,4 +1269,641 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3683100E-0997-4C31-9A61-FA1179D0DF26}">
+  <dimension ref="A4:I50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>168</v>
+      </c>
+      <c r="B4">
+        <v>-380</v>
+      </c>
+      <c r="C4">
+        <v>893</v>
+      </c>
+      <c r="E4">
+        <f>MIN(A1:A100)</f>
+        <v>-999</v>
+      </c>
+      <c r="F4">
+        <f>MIN(B1:B100)</f>
+        <v>-1250</v>
+      </c>
+      <c r="G4">
+        <f>MIN(C1:C100)</f>
+        <v>-990</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>196</v>
+      </c>
+      <c r="B5">
+        <v>226</v>
+      </c>
+      <c r="C5">
+        <v>727</v>
+      </c>
+      <c r="E5">
+        <f>MAX(A1:A100)</f>
+        <v>987</v>
+      </c>
+      <c r="F5">
+        <f>MAX(B1:B100)</f>
+        <v>958</v>
+      </c>
+      <c r="G5">
+        <f>MAX(C1:C100)</f>
+        <v>954</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>250</v>
+      </c>
+      <c r="B6">
+        <v>-999</v>
+      </c>
+      <c r="C6">
+        <v>-249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>801</v>
+      </c>
+      <c r="B7">
+        <v>-660</v>
+      </c>
+      <c r="C7">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>113</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>-675</v>
+      </c>
+      <c r="E8">
+        <f>(E4+E5)/2</f>
+        <v>-6</v>
+      </c>
+      <c r="F8">
+        <v>-146</v>
+      </c>
+      <c r="G8">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>457</v>
+      </c>
+      <c r="B9">
+        <v>545</v>
+      </c>
+      <c r="C9">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>235</v>
+      </c>
+      <c r="B10">
+        <v>-965</v>
+      </c>
+      <c r="C10">
+        <v>-891</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-860</v>
+      </c>
+      <c r="B11">
+        <v>858</v>
+      </c>
+      <c r="C11">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>876</v>
+      </c>
+      <c r="B12">
+        <v>-226</v>
+      </c>
+      <c r="C12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-961</v>
+      </c>
+      <c r="B13">
+        <v>44</v>
+      </c>
+      <c r="C13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-485</v>
+      </c>
+      <c r="B14">
+        <v>-238</v>
+      </c>
+      <c r="C14">
+        <v>33</v>
+      </c>
+      <c r="E14">
+        <f>E5-E4</f>
+        <v>1986</v>
+      </c>
+      <c r="F14">
+        <v>2208</v>
+      </c>
+      <c r="G14">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-293</v>
+      </c>
+      <c r="B15">
+        <v>-137</v>
+      </c>
+      <c r="C15">
+        <v>-697</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>692</v>
+      </c>
+      <c r="B16">
+        <v>328</v>
+      </c>
+      <c r="C16">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>577</v>
+      </c>
+      <c r="B17">
+        <v>-591</v>
+      </c>
+      <c r="C17">
+        <v>-406</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17">
+        <v>-566</v>
+      </c>
+      <c r="G17">
+        <v>-434</v>
+      </c>
+      <c r="H17">
+        <v>340</v>
+      </c>
+      <c r="I17">
+        <f>SQRT(F17^2+G17^2+H17^2)</f>
+        <v>790.13416582248863</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>987</v>
+      </c>
+      <c r="B18">
+        <v>-1</v>
+      </c>
+      <c r="C18">
+        <v>419</v>
+      </c>
+      <c r="F18">
+        <f>F17/$I17</f>
+        <v>-0.71633404108126797</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:H18" si="0">G17/$I17</f>
+        <v>-0.54927380535206771</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0.43030666778733412</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>378</v>
+      </c>
+      <c r="B19">
+        <v>658</v>
+      </c>
+      <c r="C19">
+        <v>-151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>653</v>
+      </c>
+      <c r="B20">
+        <v>779</v>
+      </c>
+      <c r="C20">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-259</v>
+      </c>
+      <c r="B22">
+        <v>-750</v>
+      </c>
+      <c r="C22">
+        <v>105</v>
+      </c>
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22">
+        <f>E4</f>
+        <v>-999</v>
+      </c>
+      <c r="G22">
+        <f>F5</f>
+        <v>958</v>
+      </c>
+      <c r="H22">
+        <f>G5</f>
+        <v>954</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>850</v>
+      </c>
+      <c r="B23">
+        <v>-88</v>
+      </c>
+      <c r="C23">
+        <v>-987</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23">
+        <f>E4</f>
+        <v>-999</v>
+      </c>
+      <c r="G23">
+        <f>F4</f>
+        <v>-1250</v>
+      </c>
+      <c r="H23">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-218</v>
+      </c>
+      <c r="B24">
+        <v>-671</v>
+      </c>
+      <c r="C24">
+        <v>-879</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-623</v>
+      </c>
+      <c r="B25">
+        <v>-247</v>
+      </c>
+      <c r="C25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>114</v>
+      </c>
+      <c r="B26">
+        <v>-51</v>
+      </c>
+      <c r="C26">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>621</v>
+      </c>
+      <c r="B27">
+        <v>700</v>
+      </c>
+      <c r="C27">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-939</v>
+      </c>
+      <c r="B28">
+        <v>-30</v>
+      </c>
+      <c r="C28">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>-81</v>
+      </c>
+      <c r="B29">
+        <v>583</v>
+      </c>
+      <c r="C29">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>-614</v>
+      </c>
+      <c r="B30">
+        <v>-308</v>
+      </c>
+      <c r="C30">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>42</v>
+      </c>
+      <c r="B31">
+        <v>326</v>
+      </c>
+      <c r="C31">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>328</v>
+      </c>
+      <c r="B32">
+        <v>-485</v>
+      </c>
+      <c r="C32">
+        <v>-481</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>91</v>
+      </c>
+      <c r="B33">
+        <v>223</v>
+      </c>
+      <c r="C33">
+        <v>-216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>-882</v>
+      </c>
+      <c r="B34">
+        <v>-288</v>
+      </c>
+      <c r="C34">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>-651</v>
+      </c>
+      <c r="B35">
+        <v>-1250</v>
+      </c>
+      <c r="C35">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>-443</v>
+      </c>
+      <c r="B36">
+        <v>-706</v>
+      </c>
+      <c r="C36">
+        <v>-990</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>-233</v>
+      </c>
+      <c r="B37">
+        <v>357</v>
+      </c>
+      <c r="C37">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>581</v>
+      </c>
+      <c r="B38">
+        <v>728</v>
+      </c>
+      <c r="C38">
+        <v>-703</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>-999</v>
+      </c>
+      <c r="B39">
+        <v>-334</v>
+      </c>
+      <c r="C39">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>534</v>
+      </c>
+      <c r="B40">
+        <v>731</v>
+      </c>
+      <c r="C40">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>50</v>
+      </c>
+      <c r="B41">
+        <v>-283</v>
+      </c>
+      <c r="C41">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>-151</v>
+      </c>
+      <c r="B42">
+        <v>838</v>
+      </c>
+      <c r="C42">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>29</v>
+      </c>
+      <c r="B43">
+        <v>-909</v>
+      </c>
+      <c r="C43">
+        <v>-169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>129</v>
+      </c>
+      <c r="B44">
+        <v>473</v>
+      </c>
+      <c r="C44">
+        <v>-685</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>877</v>
+      </c>
+      <c r="B45">
+        <v>80</v>
+      </c>
+      <c r="C45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>229</v>
+      </c>
+      <c r="B46">
+        <v>-270</v>
+      </c>
+      <c r="C46">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>-272</v>
+      </c>
+      <c r="B47">
+        <v>316</v>
+      </c>
+      <c r="C47">
+        <v>-861</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>-446</v>
+      </c>
+      <c r="B48">
+        <v>-932</v>
+      </c>
+      <c r="C48">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>-463</v>
+      </c>
+      <c r="B49">
+        <v>958</v>
+      </c>
+      <c r="C49">
+        <v>-407</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>695</v>
+      </c>
+      <c r="B50">
+        <v>150</v>
+      </c>
+      <c r="C50">
+        <v>-989</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Projector/ProjectionData.xlsx
+++ b/Projector/ProjectionData.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AliasPaul\Projector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125DDED5-C611-449F-A67C-0DE4D3147288}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F3783C-3990-4A7A-B71B-E5F6A7E5B581}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1335" windowWidth="28800" windowHeight="16065" activeTab="3" xr2:uid="{B6181921-8269-4D53-8189-F50D765000A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{B6181921-8269-4D53-8189-F50D765000A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Projector" sheetId="1" r:id="rId1"/>
     <sheet name="Line3D" sheetId="2" r:id="rId2"/>
     <sheet name="BoundedPlane" sheetId="3" r:id="rId3"/>
-    <sheet name="Cube" sheetId="5" r:id="rId4"/>
+    <sheet name="Plane" sheetId="6" r:id="rId4"/>
+    <sheet name="Cube" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Camera Point</t>
   </si>
@@ -166,6 +167,21 @@
   </si>
   <si>
     <t>ftr</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>PointInPlane</t>
+  </si>
+  <si>
+    <t>PointOutofPlane</t>
   </si>
 </sst>
 </file>
@@ -1272,10 +1288,153 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E397FE4-D7BA-441F-B117-811E923D8A12}">
+  <dimension ref="A3:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f>SQRT((A3^2) + (B3^2) + (C3^2))</f>
+        <v>1.4142135623730951</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>A3/$E4</f>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:C5" si="0">B3/$E4</f>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>B5*C6-C5*B6</f>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="B7">
+        <f>-(A5*C6-C5*A6)</f>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="C7">
+        <f>A5*B6-B5*A6</f>
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>-450</v>
+      </c>
+      <c r="C9">
+        <v>400</v>
+      </c>
+      <c r="D9">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>45</v>
+      </c>
+      <c r="C11">
+        <v>-56</v>
+      </c>
+      <c r="D11">
+        <v>-124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12">
+        <f>B9+$B11*A6+$C11*A7</f>
+        <v>-410.40202025355336</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:D12" si="1">C9+$B11*B6+$C11*B7</f>
+        <v>439.59797974644664</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>787</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <f>B12+$D11*A5</f>
+        <v>-498.08326112068528</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:D14" si="2">C12+$D11*B5</f>
+        <v>527.27922061357856</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>787</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3683100E-0997-4C31-9A61-FA1179D0DF26}">
   <dimension ref="A4:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>

--- a/Projector/ProjectionData.xlsx
+++ b/Projector/ProjectionData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AliasPaul\Projector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F3783C-3990-4A7A-B71B-E5F6A7E5B581}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1879098D-99F8-4823-B4FC-381BDA29C989}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{B6181921-8269-4D53-8189-F50D765000A8}"/>
+    <workbookView xWindow="0" yWindow="1335" windowWidth="28800" windowHeight="16065" activeTab="4" xr2:uid="{B6181921-8269-4D53-8189-F50D765000A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Projector" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>Camera Point</t>
   </si>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>PointOutofPlane</t>
+  </si>
+  <si>
+    <t>fbl</t>
+  </si>
+  <si>
+    <t>fbr</t>
   </si>
 </sst>
 </file>
@@ -1291,7 +1297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E397FE4-D7BA-441F-B117-811E923D8A12}">
   <dimension ref="A3:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1434,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3683100E-0997-4C31-9A61-FA1179D0DF26}">
   <dimension ref="A4:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,9 +1533,11 @@
         <v>-6</v>
       </c>
       <c r="F8">
+        <f t="shared" ref="F8:G8" si="0">(F4+F5)/2</f>
         <v>-146</v>
       </c>
       <c r="G8">
+        <f t="shared" si="0"/>
         <v>-18</v>
       </c>
     </row>
@@ -1673,11 +1681,11 @@
         <v>-0.71633404108126797</v>
       </c>
       <c r="G18">
-        <f t="shared" ref="G18:H18" si="0">G17/$I17</f>
+        <f t="shared" ref="G18:H18" si="1">G17/$I17</f>
         <v>-0.54927380535206771</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.43030666778733412</v>
       </c>
     </row>
@@ -1732,8 +1740,8 @@
         <v>-999</v>
       </c>
       <c r="G22">
-        <f>F5</f>
-        <v>958</v>
+        <f>F4</f>
+        <v>-1250</v>
       </c>
       <c r="H22">
         <f>G5</f>
@@ -1758,8 +1766,8 @@
         <v>-999</v>
       </c>
       <c r="G23">
-        <f>F4</f>
-        <v>-1250</v>
+        <f>F5</f>
+        <v>958</v>
       </c>
       <c r="H23">
         <v>954</v>
@@ -1775,6 +1783,21 @@
       <c r="C24">
         <v>-879</v>
       </c>
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24">
+        <f>E4</f>
+        <v>-999</v>
+      </c>
+      <c r="G24">
+        <f>F4</f>
+        <v>-1250</v>
+      </c>
+      <c r="H24">
+        <f>G4</f>
+        <v>-990</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -1785,6 +1808,21 @@
       </c>
       <c r="C25">
         <v>22</v>
+      </c>
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25">
+        <f>E4</f>
+        <v>-999</v>
+      </c>
+      <c r="G25">
+        <f>F5</f>
+        <v>958</v>
+      </c>
+      <c r="H25">
+        <f>G4</f>
+        <v>-990</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">

--- a/Projector/ProjectionData.xlsx
+++ b/Projector/ProjectionData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AliasPaul\Projector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1879098D-99F8-4823-B4FC-381BDA29C989}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7A464D-1627-4AA7-8C32-165B9C1BA060}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1335" windowWidth="28800" windowHeight="16065" activeTab="4" xr2:uid="{B6181921-8269-4D53-8189-F50D765000A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{B6181921-8269-4D53-8189-F50D765000A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Projector" sheetId="1" r:id="rId1"/>
@@ -1438,19 +1438,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3683100E-0997-4C31-9A61-FA1179D0DF26}">
-  <dimension ref="A4:I50"/>
+  <dimension ref="A4:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>168</v>
       </c>
@@ -1461,19 +1462,31 @@
         <v>893</v>
       </c>
       <c r="E4">
+        <f>SUM(A$4:A4)</f>
+        <v>168</v>
+      </c>
+      <c r="F4">
+        <f>SUM(B$4:B4)</f>
+        <v>-380</v>
+      </c>
+      <c r="G4">
+        <f>SUM(C$4:C4)</f>
+        <v>893</v>
+      </c>
+      <c r="H4">
         <f>MIN(A1:A100)</f>
         <v>-999</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <f>MIN(B1:B100)</f>
-        <v>-1250</v>
-      </c>
-      <c r="G4">
+        <v>-1884</v>
+      </c>
+      <c r="J4">
         <f>MIN(C1:C100)</f>
         <v>-990</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>196</v>
       </c>
@@ -1484,19 +1497,31 @@
         <v>727</v>
       </c>
       <c r="E5">
+        <f>SUM(A$4:A5)</f>
+        <v>364</v>
+      </c>
+      <c r="F5">
+        <f>SUM(B$4:B5)</f>
+        <v>-154</v>
+      </c>
+      <c r="G5">
+        <f>SUM(C$4:C5)</f>
+        <v>1620</v>
+      </c>
+      <c r="H5">
         <f>MAX(A1:A100)</f>
-        <v>987</v>
-      </c>
-      <c r="F5">
+        <v>1698</v>
+      </c>
+      <c r="I5">
         <f>MAX(B1:B100)</f>
         <v>958</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <f>MAX(C1:C100)</f>
         <v>954</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>250</v>
       </c>
@@ -1506,8 +1531,20 @@
       <c r="C6">
         <v>-249</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f>SUM(A$4:A6)</f>
+        <v>614</v>
+      </c>
+      <c r="F6">
+        <f>SUM(B$4:B6)</f>
+        <v>-1153</v>
+      </c>
+      <c r="G6">
+        <f>SUM(C$4:C6)</f>
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>801</v>
       </c>
@@ -1517,8 +1554,20 @@
       <c r="C7">
         <v>529</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f>SUM(A$4:A7)</f>
+        <v>1415</v>
+      </c>
+      <c r="F7">
+        <f>SUM(B$4:B7)</f>
+        <v>-1813</v>
+      </c>
+      <c r="G7">
+        <f>SUM(C$4:C7)</f>
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>113</v>
       </c>
@@ -1529,19 +1578,31 @@
         <v>-675</v>
       </c>
       <c r="E8">
-        <f>(E4+E5)/2</f>
-        <v>-6</v>
+        <f>SUM(A$4:A8)</f>
+        <v>1528</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:G8" si="0">(F4+F5)/2</f>
-        <v>-146</v>
+        <f>SUM(B$4:B8)</f>
+        <v>-1804</v>
       </c>
       <c r="G8">
+        <f>SUM(C$4:C8)</f>
+        <v>1225</v>
+      </c>
+      <c r="H8">
+        <f>(H4+H5)/2</f>
+        <v>349.5</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:J8" si="0">(I4+I5)/2</f>
+        <v>-463</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="0"/>
         <v>-18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>457</v>
       </c>
@@ -1551,8 +1612,20 @@
       <c r="C9">
         <v>285</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f>SUM(A$4:A9)</f>
+        <v>1985</v>
+      </c>
+      <c r="F9">
+        <f>SUM(B$4:B9)</f>
+        <v>-1259</v>
+      </c>
+      <c r="G9">
+        <f>SUM(C$4:C9)</f>
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>235</v>
       </c>
@@ -1562,8 +1635,20 @@
       <c r="C10">
         <v>-891</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f>SUM(A$4:A10)</f>
+        <v>2220</v>
+      </c>
+      <c r="F10">
+        <f>SUM(B$4:B10)</f>
+        <v>-2224</v>
+      </c>
+      <c r="G10">
+        <f>SUM(C$4:C10)</f>
+        <v>619</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-860</v>
       </c>
@@ -1573,8 +1658,20 @@
       <c r="C11">
         <v>351</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f>SUM(A$4:A11)</f>
+        <v>1360</v>
+      </c>
+      <c r="F11">
+        <f>SUM(B$4:B11)</f>
+        <v>-1366</v>
+      </c>
+      <c r="G11">
+        <f>SUM(C$4:C11)</f>
+        <v>970</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>876</v>
       </c>
@@ -1584,8 +1681,20 @@
       <c r="C12">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f>SUM(A$4:A12)</f>
+        <v>2236</v>
+      </c>
+      <c r="F12">
+        <f>SUM(B$4:B12)</f>
+        <v>-1592</v>
+      </c>
+      <c r="G12">
+        <f>SUM(C$4:C12)</f>
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-961</v>
       </c>
@@ -1595,8 +1704,20 @@
       <c r="C13">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f>SUM(A$4:A13)</f>
+        <v>1275</v>
+      </c>
+      <c r="F13">
+        <f>SUM(B$4:B13)</f>
+        <v>-1548</v>
+      </c>
+      <c r="G13">
+        <f>SUM(C$4:C13)</f>
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-485</v>
       </c>
@@ -1607,17 +1728,29 @@
         <v>33</v>
       </c>
       <c r="E14">
-        <f>E5-E4</f>
-        <v>1986</v>
+        <f>SUM(A$4:A14)</f>
+        <v>790</v>
       </c>
       <c r="F14">
+        <f>SUM(B$4:B14)</f>
+        <v>-1786</v>
+      </c>
+      <c r="G14">
+        <f>SUM(C$4:C14)</f>
+        <v>1090</v>
+      </c>
+      <c r="H14">
+        <f>H5-H4</f>
+        <v>2697</v>
+      </c>
+      <c r="I14">
         <v>2208</v>
       </c>
-      <c r="G14">
+      <c r="J14">
         <v>1944</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-293</v>
       </c>
@@ -1627,8 +1760,20 @@
       <c r="C15">
         <v>-697</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <f>SUM(A$4:A15)</f>
+        <v>497</v>
+      </c>
+      <c r="F15">
+        <f>SUM(B$4:B15)</f>
+        <v>-1923</v>
+      </c>
+      <c r="G15">
+        <f>SUM(C$4:C15)</f>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>692</v>
       </c>
@@ -1638,8 +1783,20 @@
       <c r="C16">
         <v>406</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f>SUM(A$4:A16)</f>
+        <v>1189</v>
+      </c>
+      <c r="F16">
+        <f>SUM(B$4:B16)</f>
+        <v>-1595</v>
+      </c>
+      <c r="G16">
+        <f>SUM(C$4:C16)</f>
+        <v>799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>577</v>
       </c>
@@ -1649,24 +1806,36 @@
       <c r="C17">
         <v>-406</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17">
+        <f>SUM(A$4:A17)</f>
+        <v>1766</v>
+      </c>
+      <c r="F17">
+        <f>SUM(B$4:B17)</f>
+        <v>-2186</v>
+      </c>
+      <c r="G17">
+        <f>SUM(C$4:C17)</f>
+        <v>393</v>
+      </c>
+      <c r="H17" t="s">
         <v>41</v>
       </c>
-      <c r="F17">
+      <c r="I17">
         <v>-566</v>
       </c>
-      <c r="G17">
+      <c r="J17">
         <v>-434</v>
       </c>
-      <c r="H17">
+      <c r="K17">
         <v>340</v>
       </c>
-      <c r="I17">
-        <f>SQRT(F17^2+G17^2+H17^2)</f>
+      <c r="L17">
+        <f>SQRT(I17^2+J17^2+K17^2)</f>
         <v>790.13416582248863</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>987</v>
       </c>
@@ -1676,20 +1845,32 @@
       <c r="C18">
         <v>419</v>
       </c>
+      <c r="E18">
+        <f>SUM(A$4:A18)</f>
+        <v>2753</v>
+      </c>
       <c r="F18">
-        <f>F17/$I17</f>
+        <f>SUM(B$4:B18)</f>
+        <v>-2187</v>
+      </c>
+      <c r="G18">
+        <f>SUM(C$4:C18)</f>
+        <v>812</v>
+      </c>
+      <c r="I18">
+        <f>I17/$L17</f>
         <v>-0.71633404108126797</v>
       </c>
-      <c r="G18">
-        <f t="shared" ref="G18:H18" si="1">G17/$I17</f>
+      <c r="J18">
+        <f t="shared" ref="J18:K18" si="1">J17/$L17</f>
         <v>-0.54927380535206771</v>
       </c>
-      <c r="H18">
+      <c r="K18">
         <f t="shared" si="1"/>
         <v>0.43030666778733412</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>378</v>
       </c>
@@ -1699,8 +1880,20 @@
       <c r="C19">
         <v>-151</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f>SUM(A$4:A19)</f>
+        <v>3131</v>
+      </c>
+      <c r="F19">
+        <f>SUM(B$4:B19)</f>
+        <v>-1529</v>
+      </c>
+      <c r="G19">
+        <f>SUM(C$4:C19)</f>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>653</v>
       </c>
@@ -1710,8 +1903,20 @@
       <c r="C20">
         <v>954</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f>SUM(A$4:A20)</f>
+        <v>3784</v>
+      </c>
+      <c r="F20">
+        <f>SUM(B$4:B20)</f>
+        <v>-750</v>
+      </c>
+      <c r="G20">
+        <f>SUM(C$4:C20)</f>
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1721,8 +1926,20 @@
       <c r="C21">
         <v>-26</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f>SUM(A$4:A21)</f>
+        <v>3802</v>
+      </c>
+      <c r="F21">
+        <f>SUM(B$4:B21)</f>
+        <v>-745</v>
+      </c>
+      <c r="G21">
+        <f>SUM(C$4:C21)</f>
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-259</v>
       </c>
@@ -1732,23 +1949,35 @@
       <c r="C22">
         <v>105</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22">
+        <f>SUM(A$4:A22)</f>
+        <v>3543</v>
+      </c>
+      <c r="F22">
+        <f>SUM(B$4:B22)</f>
+        <v>-1495</v>
+      </c>
+      <c r="G22">
+        <f>SUM(C$4:C22)</f>
+        <v>1694</v>
+      </c>
+      <c r="H22" t="s">
         <v>40</v>
       </c>
-      <c r="F22">
-        <f>E4</f>
+      <c r="I22">
+        <f>H4</f>
         <v>-999</v>
       </c>
-      <c r="G22">
-        <f>F4</f>
-        <v>-1250</v>
-      </c>
-      <c r="H22">
-        <f>G5</f>
+      <c r="J22">
+        <f>I4</f>
+        <v>-1884</v>
+      </c>
+      <c r="K22">
+        <f>J5</f>
         <v>954</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>850</v>
       </c>
@@ -1758,22 +1987,34 @@
       <c r="C23">
         <v>-987</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23">
+        <f>SUM(A$4:A23)</f>
+        <v>4393</v>
+      </c>
+      <c r="F23">
+        <f>SUM(B$4:B23)</f>
+        <v>-1583</v>
+      </c>
+      <c r="G23">
+        <f>SUM(C$4:C23)</f>
+        <v>707</v>
+      </c>
+      <c r="H23" t="s">
         <v>42</v>
       </c>
-      <c r="F23">
-        <f>E4</f>
+      <c r="I23">
+        <f>H4</f>
         <v>-999</v>
       </c>
-      <c r="G23">
-        <f>F5</f>
+      <c r="J23">
+        <f>I5</f>
         <v>958</v>
       </c>
-      <c r="H23">
+      <c r="K23">
         <v>954</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-218</v>
       </c>
@@ -1783,23 +2024,35 @@
       <c r="C24">
         <v>-879</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24">
+        <f>SUM(A$4:A24)</f>
+        <v>4175</v>
+      </c>
+      <c r="F24">
+        <f>SUM(B$4:B24)</f>
+        <v>-2254</v>
+      </c>
+      <c r="G24">
+        <f>SUM(C$4:C24)</f>
+        <v>-172</v>
+      </c>
+      <c r="H24" t="s">
         <v>48</v>
       </c>
-      <c r="F24">
-        <f>E4</f>
+      <c r="I24">
+        <f>H4</f>
         <v>-999</v>
       </c>
-      <c r="G24">
-        <f>F4</f>
-        <v>-1250</v>
-      </c>
-      <c r="H24">
-        <f>G4</f>
+      <c r="J24">
+        <f>I4</f>
+        <v>-1884</v>
+      </c>
+      <c r="K24">
+        <f>J4</f>
         <v>-990</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-623</v>
       </c>
@@ -1809,23 +2062,35 @@
       <c r="C25">
         <v>22</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25">
+        <f>SUM(A$4:A25)</f>
+        <v>3552</v>
+      </c>
+      <c r="F25">
+        <f>SUM(B$4:B25)</f>
+        <v>-2501</v>
+      </c>
+      <c r="G25">
+        <f>SUM(C$4:C25)</f>
+        <v>-150</v>
+      </c>
+      <c r="H25" t="s">
         <v>49</v>
       </c>
-      <c r="F25">
-        <f>E4</f>
+      <c r="I25">
+        <f>H4</f>
         <v>-999</v>
       </c>
-      <c r="G25">
-        <f>F5</f>
+      <c r="J25">
+        <f>I5</f>
         <v>958</v>
       </c>
-      <c r="H25">
-        <f>G4</f>
+      <c r="K25">
+        <f>J4</f>
         <v>-990</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>114</v>
       </c>
@@ -1835,8 +2100,20 @@
       <c r="C26">
         <v>-800</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f>SUM(A$4:A26)</f>
+        <v>3666</v>
+      </c>
+      <c r="F26">
+        <f>SUM(B$4:B26)</f>
+        <v>-2552</v>
+      </c>
+      <c r="G26">
+        <f>SUM(C$4:C26)</f>
+        <v>-950</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>621</v>
       </c>
@@ -1846,8 +2123,20 @@
       <c r="C27">
         <v>566</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f>SUM(A$4:A27)</f>
+        <v>4287</v>
+      </c>
+      <c r="F27">
+        <f>SUM(B$4:B27)</f>
+        <v>-1852</v>
+      </c>
+      <c r="G27">
+        <f>SUM(C$4:C27)</f>
+        <v>-384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-939</v>
       </c>
@@ -1857,8 +2146,20 @@
       <c r="C28">
         <v>417</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <f>SUM(A$4:A28)</f>
+        <v>3348</v>
+      </c>
+      <c r="F28">
+        <f>SUM(B$4:B28)</f>
+        <v>-1882</v>
+      </c>
+      <c r="G28">
+        <f>SUM(C$4:C28)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-81</v>
       </c>
@@ -1868,8 +2169,20 @@
       <c r="C29">
         <v>725</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <f>SUM(A$4:A29)</f>
+        <v>3267</v>
+      </c>
+      <c r="F29">
+        <f>SUM(B$4:B29)</f>
+        <v>-1299</v>
+      </c>
+      <c r="G29">
+        <f>SUM(C$4:C29)</f>
+        <v>758</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-614</v>
       </c>
@@ -1879,8 +2192,20 @@
       <c r="C30">
         <v>480</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <f>SUM(A$4:A30)</f>
+        <v>2653</v>
+      </c>
+      <c r="F30">
+        <f>SUM(B$4:B30)</f>
+        <v>-1607</v>
+      </c>
+      <c r="G30">
+        <f>SUM(C$4:C30)</f>
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>42</v>
       </c>
@@ -1890,8 +2215,20 @@
       <c r="C31">
         <v>408</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <f>SUM(A$4:A31)</f>
+        <v>2695</v>
+      </c>
+      <c r="F31">
+        <f>SUM(B$4:B31)</f>
+        <v>-1281</v>
+      </c>
+      <c r="G31">
+        <f>SUM(C$4:C31)</f>
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>328</v>
       </c>
@@ -1901,8 +2238,20 @@
       <c r="C32">
         <v>-481</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <f>SUM(A$4:A32)</f>
+        <v>3023</v>
+      </c>
+      <c r="F32">
+        <f>SUM(B$4:B32)</f>
+        <v>-1766</v>
+      </c>
+      <c r="G32">
+        <f>SUM(C$4:C32)</f>
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>91</v>
       </c>
@@ -1912,8 +2261,20 @@
       <c r="C33">
         <v>-216</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <f>SUM(A$4:A33)</f>
+        <v>3114</v>
+      </c>
+      <c r="F33">
+        <f>SUM(B$4:B33)</f>
+        <v>-1543</v>
+      </c>
+      <c r="G33">
+        <f>SUM(C$4:C33)</f>
+        <v>949</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-882</v>
       </c>
@@ -1923,8 +2284,20 @@
       <c r="C34">
         <v>113</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <f>SUM(A$4:A34)</f>
+        <v>2232</v>
+      </c>
+      <c r="F34">
+        <f>SUM(B$4:B34)</f>
+        <v>-1831</v>
+      </c>
+      <c r="G34">
+        <f>SUM(C$4:C34)</f>
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-651</v>
       </c>
@@ -1934,8 +2307,20 @@
       <c r="C35">
         <v>-16</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <f>SUM(A$4:A35)</f>
+        <v>1581</v>
+      </c>
+      <c r="F35">
+        <f>SUM(B$4:B35)</f>
+        <v>-3081</v>
+      </c>
+      <c r="G35">
+        <f>SUM(C$4:C35)</f>
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-443</v>
       </c>
@@ -1945,8 +2330,20 @@
       <c r="C36">
         <v>-990</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <f>SUM(A$4:A36)</f>
+        <v>1138</v>
+      </c>
+      <c r="F36">
+        <f>SUM(B$4:B36)</f>
+        <v>-3787</v>
+      </c>
+      <c r="G36">
+        <f>SUM(C$4:C36)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-233</v>
       </c>
@@ -1956,8 +2353,20 @@
       <c r="C37">
         <v>428</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <f>SUM(A$4:A37)</f>
+        <v>905</v>
+      </c>
+      <c r="F37">
+        <f>SUM(B$4:B37)</f>
+        <v>-3430</v>
+      </c>
+      <c r="G37">
+        <f>SUM(C$4:C37)</f>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>581</v>
       </c>
@@ -1967,8 +2376,20 @@
       <c r="C38">
         <v>-703</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <f>SUM(A$4:A38)</f>
+        <v>1486</v>
+      </c>
+      <c r="F38">
+        <f>SUM(B$4:B38)</f>
+        <v>-2702</v>
+      </c>
+      <c r="G38">
+        <f>SUM(C$4:C38)</f>
+        <v>-219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-999</v>
       </c>
@@ -1978,8 +2399,20 @@
       <c r="C39">
         <v>775</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <f>SUM(A$4:A39)</f>
+        <v>487</v>
+      </c>
+      <c r="F39">
+        <f>SUM(B$4:B39)</f>
+        <v>-3036</v>
+      </c>
+      <c r="G39">
+        <f>SUM(C$4:C39)</f>
+        <v>556</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>534</v>
       </c>
@@ -1989,8 +2422,20 @@
       <c r="C40">
         <v>570</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <f>SUM(A$4:A40)</f>
+        <v>1021</v>
+      </c>
+      <c r="F40">
+        <f>SUM(B$4:B40)</f>
+        <v>-2305</v>
+      </c>
+      <c r="G40">
+        <f>SUM(C$4:C40)</f>
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>50</v>
       </c>
@@ -2000,8 +2445,20 @@
       <c r="C41">
         <v>452</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <f>SUM(A$4:A41)</f>
+        <v>1071</v>
+      </c>
+      <c r="F41">
+        <f>SUM(B$4:B41)</f>
+        <v>-2588</v>
+      </c>
+      <c r="G41">
+        <f>SUM(C$4:C41)</f>
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-151</v>
       </c>
@@ -2011,8 +2468,20 @@
       <c r="C42">
         <v>139</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <f>SUM(A$4:A42)</f>
+        <v>920</v>
+      </c>
+      <c r="F42">
+        <f>SUM(B$4:B42)</f>
+        <v>-1750</v>
+      </c>
+      <c r="G42">
+        <f>SUM(C$4:C42)</f>
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>29</v>
       </c>
@@ -2022,8 +2491,20 @@
       <c r="C43">
         <v>-169</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <f>SUM(A$4:A43)</f>
+        <v>949</v>
+      </c>
+      <c r="F43">
+        <f>SUM(B$4:B43)</f>
+        <v>-2659</v>
+      </c>
+      <c r="G43">
+        <f>SUM(C$4:C43)</f>
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>129</v>
       </c>
@@ -2033,8 +2514,20 @@
       <c r="C44">
         <v>-685</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <f>SUM(A$4:A44)</f>
+        <v>1078</v>
+      </c>
+      <c r="F44">
+        <f>SUM(B$4:B44)</f>
+        <v>-2186</v>
+      </c>
+      <c r="G44">
+        <f>SUM(C$4:C44)</f>
+        <v>863</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>877</v>
       </c>
@@ -2044,8 +2537,20 @@
       <c r="C45">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <f>SUM(A$4:A45)</f>
+        <v>1955</v>
+      </c>
+      <c r="F45">
+        <f>SUM(B$4:B45)</f>
+        <v>-2106</v>
+      </c>
+      <c r="G45">
+        <f>SUM(C$4:C45)</f>
+        <v>908</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>229</v>
       </c>
@@ -2055,8 +2560,20 @@
       <c r="C46">
         <v>715</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <f>SUM(A$4:A46)</f>
+        <v>2184</v>
+      </c>
+      <c r="F46">
+        <f>SUM(B$4:B46)</f>
+        <v>-2376</v>
+      </c>
+      <c r="G46">
+        <f>SUM(C$4:C46)</f>
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-272</v>
       </c>
@@ -2066,8 +2583,20 @@
       <c r="C47">
         <v>-861</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <f>SUM(A$4:A47)</f>
+        <v>1912</v>
+      </c>
+      <c r="F47">
+        <f>SUM(B$4:B47)</f>
+        <v>-2060</v>
+      </c>
+      <c r="G47">
+        <f>SUM(C$4:C47)</f>
+        <v>762</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-446</v>
       </c>
@@ -2077,8 +2606,20 @@
       <c r="C48">
         <v>165</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <f>SUM(A$4:A48)</f>
+        <v>1466</v>
+      </c>
+      <c r="F48">
+        <f>SUM(B$4:B48)</f>
+        <v>-2992</v>
+      </c>
+      <c r="G48">
+        <f>SUM(C$4:C48)</f>
+        <v>927</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-463</v>
       </c>
@@ -2088,8 +2629,20 @@
       <c r="C49">
         <v>-407</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <f>SUM(A$4:A49)</f>
+        <v>1003</v>
+      </c>
+      <c r="F49">
+        <f>SUM(B$4:B49)</f>
+        <v>-2034</v>
+      </c>
+      <c r="G49">
+        <f>SUM(C$4:C49)</f>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>695</v>
       </c>
@@ -2098,6 +2651,46 @@
       </c>
       <c r="C50">
         <v>-989</v>
+      </c>
+      <c r="E50">
+        <f>SUM(A$4:A50)</f>
+        <v>1698</v>
+      </c>
+      <c r="F50">
+        <f>SUM(B$4:B50)</f>
+        <v>-1884</v>
+      </c>
+      <c r="G50">
+        <f>SUM(C$4:C50)</f>
+        <v>-469</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f>AVERAGE(A4:A50)</f>
+        <v>36.127659574468083</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ref="B56:C56" si="2">AVERAGE(B4:B50)</f>
+        <v>-40.085106382978722</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="2"/>
+        <v>-9.9787234042553195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f>SUM(A4:A50)</f>
+        <v>1698</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ref="B57:C57" si="3">SUM(B4:B50)</f>
+        <v>-1884</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="3"/>
+        <v>-469</v>
       </c>
     </row>
   </sheetData>

--- a/Projector/ProjectionData.xlsx
+++ b/Projector/ProjectionData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AliasPaul\Projector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7A464D-1627-4AA7-8C32-165B9C1BA060}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A315295A-905A-43B1-A9CF-758131253ABC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{B6181921-8269-4D53-8189-F50D765000A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{B6181921-8269-4D53-8189-F50D765000A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Projector" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="BoundedPlane" sheetId="3" r:id="rId3"/>
     <sheet name="Plane" sheetId="6" r:id="rId4"/>
     <sheet name="Cube" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1440,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3683100E-0997-4C31-9A61-FA1179D0DF26}">
   <dimension ref="A4:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,15 +1475,15 @@
         <v>893</v>
       </c>
       <c r="H4">
-        <f>MIN(A1:A100)</f>
+        <f>MIN(A1:A50)</f>
         <v>-999</v>
       </c>
       <c r="I4">
-        <f>MIN(B1:B100)</f>
-        <v>-1884</v>
+        <f t="shared" ref="I4:J4" si="0">MIN(B1:B50)</f>
+        <v>-1250</v>
       </c>
       <c r="J4">
-        <f>MIN(C1:C100)</f>
+        <f t="shared" si="0"/>
         <v>-990</v>
       </c>
     </row>
@@ -1509,15 +1510,15 @@
         <v>1620</v>
       </c>
       <c r="H5">
-        <f>MAX(A1:A100)</f>
-        <v>1698</v>
+        <f>MAX(A1:A50)</f>
+        <v>987</v>
       </c>
       <c r="I5">
-        <f>MAX(B1:B100)</f>
+        <f t="shared" ref="I5:J5" si="1">MAX(B1:B50)</f>
         <v>958</v>
       </c>
       <c r="J5">
-        <f>MAX(C1:C100)</f>
+        <f t="shared" si="1"/>
         <v>954</v>
       </c>
     </row>
@@ -1591,14 +1592,14 @@
       </c>
       <c r="H8">
         <f>(H4+H5)/2</f>
-        <v>349.5</v>
+        <v>-6</v>
       </c>
       <c r="I8">
-        <f t="shared" ref="I8:J8" si="0">(I4+I5)/2</f>
-        <v>-463</v>
+        <f t="shared" ref="I8:J8" si="2">(I4+I5)/2</f>
+        <v>-146</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-18</v>
       </c>
     </row>
@@ -1741,7 +1742,7 @@
       </c>
       <c r="H14">
         <f>H5-H4</f>
-        <v>2697</v>
+        <v>1986</v>
       </c>
       <c r="I14">
         <v>2208</v>
@@ -1862,11 +1863,11 @@
         <v>-0.71633404108126797</v>
       </c>
       <c r="J18">
-        <f t="shared" ref="J18:K18" si="1">J17/$L17</f>
+        <f t="shared" ref="J18:K18" si="3">J17/$L17</f>
         <v>-0.54927380535206771</v>
       </c>
       <c r="K18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.43030666778733412</v>
       </c>
     </row>
@@ -1970,7 +1971,7 @@
       </c>
       <c r="J22">
         <f>I4</f>
-        <v>-1884</v>
+        <v>-1250</v>
       </c>
       <c r="K22">
         <f>J5</f>
@@ -2045,7 +2046,7 @@
       </c>
       <c r="J24">
         <f>I4</f>
-        <v>-1884</v>
+        <v>-1250</v>
       </c>
       <c r="K24">
         <f>J4</f>
@@ -2671,11 +2672,11 @@
         <v>36.127659574468083</v>
       </c>
       <c r="B56">
-        <f t="shared" ref="B56:C56" si="2">AVERAGE(B4:B50)</f>
+        <f t="shared" ref="B56:C56" si="4">AVERAGE(B4:B50)</f>
         <v>-40.085106382978722</v>
       </c>
       <c r="C56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-9.9787234042553195</v>
       </c>
     </row>
@@ -2685,15 +2686,29 @@
         <v>1698</v>
       </c>
       <c r="B57">
-        <f t="shared" ref="B57:C57" si="3">SUM(B4:B50)</f>
+        <f t="shared" ref="B57:C57" si="5">SUM(B4:B50)</f>
         <v>-1884</v>
       </c>
       <c r="C57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-469</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2994541D-B4DD-42D6-A65B-59A7B0E3C78D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Projector/ProjectionData.xlsx
+++ b/Projector/ProjectionData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AliasPaul\Projector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A315295A-905A-43B1-A9CF-758131253ABC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1438885D-B4FA-460C-BC57-76432AC722B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{B6181921-8269-4D53-8189-F50D765000A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{B6181921-8269-4D53-8189-F50D765000A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Projector" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="BoundedPlane" sheetId="3" r:id="rId3"/>
     <sheet name="Plane" sheetId="6" r:id="rId4"/>
     <sheet name="Cube" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId6"/>
+    <sheet name="Line2d" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>Camera Point</t>
   </si>
@@ -189,6 +189,33 @@
   </si>
   <si>
     <t>fbr</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>intersect</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>p4 to (p1-p2)</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -224,8 +251,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1441,7 +1469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3683100E-0997-4C31-9A61-FA1179D0DF26}">
   <dimension ref="A4:L57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N4" sqref="N4:N50"/>
     </sheetView>
   </sheetViews>
@@ -2701,14 +2729,151 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2994541D-B4DD-42D6-A65B-59A7B0E3C78D}">
-  <dimension ref="A1"/>
+  <dimension ref="A5:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="52" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>-45</v>
+      </c>
+      <c r="C6">
+        <v>67</v>
+      </c>
+      <c r="E6">
+        <f>(C6-C7)/(B6-B7)</f>
+        <v>-0.42045454545454547</v>
+      </c>
+      <c r="F6">
+        <f>C6-E6*B6</f>
+        <v>48.079545454545453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7">
+        <v>131</v>
+      </c>
+      <c r="C7">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12">
+        <v>-34</v>
+      </c>
+      <c r="C12">
+        <v>38</v>
+      </c>
+      <c r="E12">
+        <f>(C12-C13)/(B12-B13)</f>
+        <v>-0.44285714285714284</v>
+      </c>
+      <c r="F12">
+        <f>C12-E12*B12</f>
+        <v>22.942857142857143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13">
+        <v>106</v>
+      </c>
+      <c r="C13">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16">
+        <f>-1/E6</f>
+        <v>2.3783783783783785</v>
+      </c>
+      <c r="F16">
+        <f>C13-E16*B13</f>
+        <v>-276.10810810810813</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18">
+        <f>(F16-F6)/(E6-E16)</f>
+        <v>115.82958411061121</v>
+      </c>
+      <c r="C18">
+        <f>E16*B18+F16</f>
+        <v>-0.62152968287063004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <f>SQRT((B18-B13)^2+(C18-C13)^2)</f>
+        <v>25.360867456703435</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>-4500</v>
+      </c>
+      <c r="B28">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>7000</v>
+      </c>
+      <c r="E31">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33">
+        <v>-4490</v>
+      </c>
+      <c r="C33">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Projector/ProjectionData.xlsx
+++ b/Projector/ProjectionData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AliasPaul\Projector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1438885D-B4FA-460C-BC57-76432AC722B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FD6BEC-9698-4BF2-AD95-5AA8B4265610}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{B6181921-8269-4D53-8189-F50D765000A8}"/>
   </bookViews>
@@ -18,7 +18,8 @@
     <sheet name="BoundedPlane" sheetId="3" r:id="rId3"/>
     <sheet name="Plane" sheetId="6" r:id="rId4"/>
     <sheet name="Cube" sheetId="5" r:id="rId5"/>
-    <sheet name="Line2d" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId6"/>
+    <sheet name="Line2d" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1469,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3683100E-0997-4C31-9A61-FA1179D0DF26}">
   <dimension ref="A4:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:N50"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2728,6 +2729,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4DD24E-0E62-4F14-9ACC-139239924A56}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2994541D-B4DD-42D6-A65B-59A7B0E3C78D}">
   <dimension ref="A5:F33"/>
   <sheetViews>

--- a/Projector/ProjectionData.xlsx
+++ b/Projector/ProjectionData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AliasPaul\Projector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FD6BEC-9698-4BF2-AD95-5AA8B4265610}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADD024E-557C-4093-B961-244DED5217F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{B6181921-8269-4D53-8189-F50D765000A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{B6181921-8269-4D53-8189-F50D765000A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Projector" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="BoundedPlane" sheetId="3" r:id="rId3"/>
     <sheet name="Plane" sheetId="6" r:id="rId4"/>
     <sheet name="Cube" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId6"/>
-    <sheet name="Line2d" sheetId="8" r:id="rId7"/>
+    <sheet name="PodToPoints" sheetId="10" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId7"/>
+    <sheet name="Line2d" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>Camera Point</t>
   </si>
@@ -217,14 +218,40 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottom </t>
+  </si>
+  <si>
+    <t>Front</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -252,9 +279,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1470,7 +1498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3683100E-0997-4C31-9A61-FA1179D0DF26}">
   <dimension ref="A4:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -2729,6 +2757,73 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE3DFD0-9562-456D-8C84-2CF5FFA42242}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-6487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4">
+        <v>12356.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5">
+        <v>9095.2000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6">
+        <v>-2026.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4DD24E-0E62-4F14-9ACC-139239924A56}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2740,7 +2835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2994541D-B4DD-42D6-A65B-59A7B0E3C78D}">
   <dimension ref="A5:F33"/>
   <sheetViews>
